--- a/ATScripts-master/data/接口测试示例.xlsx
+++ b/ATScripts-master/data/接口测试示例.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>case_project</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">JavaScript - </t>
     </r>
     <r>
@@ -177,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -192,14 +198,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="30"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,6 +209,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -218,6 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +239,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -243,6 +271,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,77 +292,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,16 +329,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,97 +383,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,12 +557,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,72 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +588,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -597,15 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,30 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,54 +650,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,97 +733,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -825,16 +831,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,17 +1165,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.1666666666667"/>
-    <col min="2" max="2" width="22.8333333333333"/>
-    <col min="3" max="3" width="35.5"/>
-    <col min="4" max="5" width="10.8333333333333"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="30.8333333333333"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="57.125" customWidth="1"/>
+    <col min="4" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
     <col min="8" max="18" width="10.8333333333333"/>
   </cols>
   <sheetData>
@@ -1203,13 +1209,13 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1220,13 +1226,13 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1237,13 +1243,13 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1257,13 +1263,13 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1277,13 +1283,13 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1294,13 +1300,13 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1314,13 +1320,13 @@
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1331,19 +1337,19 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://cnodejs.org/api/v1/topics"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://cnodejs.org/api/v1/topics" tooltip="https://cnodejs.org/api/v1/topics"/>
     <hyperlink ref="C3" r:id="rId2" display="https://cnodejs.org/api/v1/topic/5433d5e4e737cbe96dcef312"/>
     <hyperlink ref="C4" r:id="rId3" display="https://cnodejs.org/api/v1/topic_collect/collect"/>
     <hyperlink ref="C5" r:id="rId4" display="https://cnodejs.org/api/v1//topic_collect/de_collect"/>
@@ -1360,14 +1366,65 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="57.125" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="6" max="6" width="41.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.cnblogs.com/Neeo/articles/11667962.html" tooltip="https://www.cnblogs.com/Neeo/articles/11667962.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
